--- a/ReportData/PreparedDataPointChart/RandomFloat33_HeapSortTimes.csv.xlsx
+++ b/ReportData/PreparedDataPointChart/RandomFloat33_HeapSortTimes.csv.xlsx
@@ -184,10 +184,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.15403072</c:v>
+                  <c:v>1.03863614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1612529</c:v>
+                  <c:v>2.3255502</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.6110785</c:v>
@@ -641,7 +641,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>1.15403072</v>
+        <v>1.03863614</v>
       </c>
       <c r="E2">
         <v>5000</v>
@@ -658,7 +658,7 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>2.1612529</v>
+        <v>2.3255502</v>
       </c>
       <c r="E3">
         <v>10000</v>
